--- a/PC.xlsx
+++ b/PC.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\Estudo\Programacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsousa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16D3949-5423-4E8A-956E-F787A95B889A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="857" activeTab="8" xr2:uid="{7461D284-5798-4486-B2C7-D9543638FF65}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7020" tabRatio="857" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Placa de video" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="Teclado" sheetId="9" r:id="rId8"/>
     <sheet name="Resumo" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -260,9 +259,6 @@
     <t>https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=86100&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=TECLADO%20GAMER%20COOLER%20MASTER%20MASTERKEYS%20LITE%20L%20RGB%20ABNT2%20SGK%203040%20KKMF1%20BR&amp;utm_content=COM-FIO&amp;utm_campaign=TECLADO%20GAMER%20COOLER%20MASTER%20MASTERKEYS%20LITE%20L%20RGB%20ABNT2%20SGK%203040%20KKMF1%20BR</t>
   </si>
   <si>
-    <t>Fallen</t>
-  </si>
-  <si>
     <t>MasterKeys Lite L</t>
   </si>
   <si>
@@ -297,15 +293,18 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Fallen Store/Kabum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -370,24 +369,19 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -703,11 +697,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8AA38B-12B8-4AA7-BBFD-4BA21CD7F685}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,7 +728,7 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -783,10 +777,10 @@
       <c r="H4" s="1">
         <v>1550</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="6">
         <v>0</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -815,7 +809,7 @@
       <c r="I5" s="1">
         <v>1005</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -824,27 +818,27 @@
     <mergeCell ref="B2:I2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J4" r:id="rId1" xr:uid="{1B28888A-6AC9-4C48-A935-126E79FDC92A}"/>
-    <hyperlink ref="J5" r:id="rId2" xr:uid="{DEDA1746-3DC4-4EB0-A245-009F8AA6C8CD}"/>
+    <hyperlink ref="J4" r:id="rId1"/>
+    <hyperlink ref="J5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944B8951-6DAF-487E-81B8-DAFDBF3A42DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:I3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="4"/>
-    <col min="8" max="9" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -862,7 +856,7 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -876,13 +870,13 @@
       <c r="F4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -905,16 +899,16 @@
       <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="G5" s="3">
         <v>839</v>
       </c>
-      <c r="I5" s="4">
+      <c r="H5" s="3">
         <v>839</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="I5" s="3">
+        <v>839</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -934,16 +928,16 @@
       <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="G6" s="3">
         <v>979</v>
       </c>
-      <c r="I6" s="4">
+      <c r="H6" s="3">
         <v>979</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="I6" s="3">
+        <v>979</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -952,8 +946,8 @@
     <mergeCell ref="B3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J5" r:id="rId1" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao.cgi?codigo=99683&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=PROCESSADOR%20INTEL%20CORE%20I5%209400F%20COFFEE%20LAKE%20CACHE%209MB%202%209GHZ%204%201GHZ%20MAX%20TURBO%20LGA%201151%20SEM%20VIDEO%20BX80684I59400F&amp;utm_content=INTEL&amp;utm_campaign=PROCESSADOR%20INTEL%20CORE%20I5%209400F%20COFFEE%20LAKE%20CACHE%209MB%202%209GHZ%204%201GHZ%20MAX%20TURBO%20LGA%201151%20SEM%20VIDEO%20BX80684I59400F" xr:uid="{3C441144-57BA-462C-BAD4-1BC866457F6E}"/>
-    <hyperlink ref="J6" r:id="rId2" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao.cgi?codigo=95563&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=PROCESSADOR%20AMD%20RYZEN%205%202600X%20COOLER%20WRAITH%20SPIRE%20CACHE%2019MB%203%206GHZ%204%2025GHZ%20MAX%20TURBO%20AM4%20SEM%20VIDEO%20YD260XBCAFBOX&amp;utm_content=AMD&amp;utm_campaign=PROCESSADOR%20AMD%20RYZEN%205%202600X%20COOLER%20WRAITH%20SPIRE%20CACHE%2019MB%203%206GHZ%204%2025GHZ%20MAX%20TURBO%20AM4%20SEM%20VIDEO%20YD260XBCAFBOX" xr:uid="{5918EBFB-B503-44D8-8897-74568B7854F1}"/>
+    <hyperlink ref="J5" r:id="rId1" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao.cgi?codigo=99683&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=PROCESSADOR%20INTEL%20CORE%20I5%209400F%20COFFEE%20LAKE%20CACHE%209MB%202%209GHZ%204%201GHZ%20MAX%20TURBO%20LGA%201151%20SEM%20VIDEO%20BX80684I59400F&amp;utm_content=INTEL&amp;utm_campaign=PROCESSADOR%20INTEL%20CORE%20I5%209400F%20COFFEE%20LAKE%20CACHE%209MB%202%209GHZ%204%201GHZ%20MAX%20TURBO%20LGA%201151%20SEM%20VIDEO%20BX80684I59400F"/>
+    <hyperlink ref="J6" r:id="rId2" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao.cgi?codigo=95563&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=PROCESSADOR%20AMD%20RYZEN%205%202600X%20COOLER%20WRAITH%20SPIRE%20CACHE%2019MB%203%206GHZ%204%2025GHZ%20MAX%20TURBO%20AM4%20SEM%20VIDEO%20YD260XBCAFBOX&amp;utm_content=AMD&amp;utm_campaign=PROCESSADOR%20AMD%20RYZEN%205%202600X%20COOLER%20WRAITH%20SPIRE%20CACHE%2019MB%203%206GHZ%204%2025GHZ%20MAX%20TURBO%20AM4%20SEM%20VIDEO%20YD260XBCAFBOX"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -961,19 +955,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCA13DD-B5DD-45CF-8157-CF687271380E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="4"/>
-    <col min="8" max="9" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
@@ -990,7 +984,7 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -1004,13 +998,13 @@
       <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -1033,16 +1027,16 @@
       <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="G4" s="3">
         <v>235</v>
       </c>
-      <c r="I4" s="4">
+      <c r="H4" s="3">
         <v>235</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="I4" s="3">
+        <v>235</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1062,16 +1056,16 @@
       <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="G5" s="3">
         <v>235</v>
       </c>
-      <c r="I5" s="4">
+      <c r="H5" s="3">
         <v>235</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="I5" s="3">
+        <v>235</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1091,16 +1085,16 @@
       <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
+        <v>630</v>
+      </c>
+      <c r="H6" s="3">
+        <v>630</v>
+      </c>
+      <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="H6" s="4">
-        <v>630</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1110,28 +1104,28 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J4" r:id="rId1" xr:uid="{B9D64664-6A71-4D0C-9D78-679CE2CAED9B}"/>
-    <hyperlink ref="J5" r:id="rId2" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=103547&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=MEMORIA%20HYPERX%20FURY%208GB%202666MHZ%20DDR4%20CL16%20PRETO%20HX426C16FB3%208&amp;utm_content=DDR-4&amp;utm_campaign=MEMORIA%20HYPERX%20FURY%208GB%202666MHZ%20DDR4%20CL16%20PRETO%20HX426C16FB3%208" xr:uid="{3CC16851-296A-4A42-AD12-9845445F891C}"/>
-    <hyperlink ref="J6" r:id="rId3" xr:uid="{E82C573B-1E62-41ED-938D-1D73C63F0F0A}"/>
+    <hyperlink ref="J4" r:id="rId1"/>
+    <hyperlink ref="J5" r:id="rId2" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=103547&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=MEMORIA%20HYPERX%20FURY%208GB%202666MHZ%20DDR4%20CL16%20PRETO%20HX426C16FB3%208&amp;utm_content=DDR-4&amp;utm_campaign=MEMORIA%20HYPERX%20FURY%208GB%202666MHZ%20DDR4%20CL16%20PRETO%20HX426C16FB3%208"/>
+    <hyperlink ref="J6" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72D0B4C-91F7-44CB-9F59-DB78608D9C66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
@@ -1147,7 +1141,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -1158,13 +1152,13 @@
       <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -1184,16 +1178,16 @@
       <c r="E4" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="F4" s="3">
         <v>159</v>
       </c>
-      <c r="H4" s="4">
+      <c r="G4" s="3">
         <v>159</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="3">
+        <v>159</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1210,16 +1204,16 @@
       <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="F5" s="3">
         <v>199</v>
       </c>
-      <c r="H5" s="4">
+      <c r="G5" s="3">
         <v>199</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="H5" s="3">
+        <v>199</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1236,16 +1230,16 @@
       <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="F6" s="3">
         <v>379</v>
       </c>
-      <c r="H6" s="4">
+      <c r="G6" s="3">
         <v>379</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="H6" s="3">
+        <v>379</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1255,27 +1249,27 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" xr:uid="{7B6325E0-3111-448E-82BA-840BA5B05C2E}"/>
-    <hyperlink ref="I5" r:id="rId2" xr:uid="{27AB0E79-3D3B-4CAC-A97C-A7FBBA1E6FD4}"/>
-    <hyperlink ref="I6" r:id="rId3" xr:uid="{7787C06C-DB58-4CFD-8A23-81726EFE2E39}"/>
+    <hyperlink ref="I4" r:id="rId1"/>
+    <hyperlink ref="I5" r:id="rId2"/>
+    <hyperlink ref="I6" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228454C9-F250-4838-8540-6D26515FB361}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="8" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="8" width="10.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
@@ -1291,7 +1285,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -1302,13 +1296,13 @@
       <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -1328,16 +1322,16 @@
       <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="F4" s="3">
         <v>270</v>
       </c>
-      <c r="H4" s="4">
+      <c r="G4" s="3">
         <v>270</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="3">
+        <v>270</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1346,24 +1340,24 @@
     <mergeCell ref="B2:H2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao.cgi?codigo=93995&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=FONTE%20COOLER%20MASTER%20ATX%20500W%2080%20PLUS%20WHITE%20MASTERWATT%20LITE%20MPX%205001%20ACAAW%20WO&amp;utm_content=LINHA-500-W&amp;utm_campaign=FONTE%20COOLER%20MASTER%20ATX%20500W%2080%20PLUS%20WHITE%20MASTERWATT%20LITE%20MPX%205001%20ACAAW%20WO" xr:uid="{CEAAE8CB-6997-4A29-AEB9-862632D5583D}"/>
+    <hyperlink ref="I4" r:id="rId1" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao.cgi?codigo=93995&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=FONTE%20COOLER%20MASTER%20ATX%20500W%2080%20PLUS%20WHITE%20MASTERWATT%20LITE%20MPX%205001%20ACAAW%20WO&amp;utm_content=LINHA-500-W&amp;utm_campaign=FONTE%20COOLER%20MASTER%20ATX%20500W%2080%20PLUS%20WHITE%20MASTERWATT%20LITE%20MPX%205001%20ACAAW%20WO"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B64198-655C-4931-AA86-ABE6672BB5B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="6" max="7" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
@@ -1378,7 +1372,7 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -1386,13 +1380,13 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1409,16 +1403,16 @@
       <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="E4" s="3">
         <v>128</v>
       </c>
-      <c r="G4" s="4">
+      <c r="F4" s="3">
         <v>128</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="3">
+        <v>128</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1427,42 +1421,43 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" xr:uid="{EEE72C64-FCAD-4C33-9C19-BFB964FB735E}"/>
+    <hyperlink ref="H4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793D612B-9324-439D-B601-1C8E6B5B0964}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="7"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -1476,13 +1471,13 @@
       <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -1505,16 +1500,16 @@
       <c r="F4" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>746</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>1000</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>1000</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1534,16 +1529,16 @@
       <c r="F5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>899</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>1120</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>1000</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1563,47 +1558,48 @@
       <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>900</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>1200</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>1200</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J4" r:id="rId1" xr:uid="{8E93ACAB-BCA2-4BEB-A4F7-BD3DE596A1A6}"/>
-    <hyperlink ref="J5" r:id="rId2" xr:uid="{A8774C83-CAD8-4E2F-B87C-14D4CD56E9B7}"/>
-    <hyperlink ref="J6" r:id="rId3" xr:uid="{3DBF566D-01A8-4AC9-B32E-B3003E7C8750}"/>
+    <hyperlink ref="J4" r:id="rId1"/>
+    <hyperlink ref="J5" r:id="rId2"/>
+    <hyperlink ref="J6" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E555E9-422B-4B5F-9591-8CA3ACD2CF5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="8" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
@@ -1619,7 +1615,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -1630,13 +1626,13 @@
       <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -1656,16 +1652,16 @@
       <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="F4" s="3">
         <v>280</v>
       </c>
-      <c r="H4" s="4">
+      <c r="G4" s="3">
         <v>280</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="3">
+        <v>280</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1682,16 +1678,16 @@
       <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="F5" s="3">
         <v>249</v>
       </c>
-      <c r="H5" s="4">
+      <c r="G5" s="3">
+        <v>249</v>
+      </c>
+      <c r="H5" s="3">
         <v>350</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1706,18 +1702,18 @@
         <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
+        <v>85</v>
+      </c>
+      <c r="F6" s="3">
         <v>199</v>
       </c>
-      <c r="H6" s="4">
+      <c r="G6" s="3">
         <v>199</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="H6" s="3">
+        <v>199</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1729,21 +1725,21 @@
         <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="F7" s="3">
         <v>170</v>
       </c>
-      <c r="H7" s="4">
+      <c r="G7" s="3">
         <v>170</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="H7" s="3">
+        <v>170</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1752,21 +1748,21 @@
     <mergeCell ref="B2:H2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=99696&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=TECLADO%20GAMER%20HYPERX%20ALLOY%20CORE%20RGB%20ABNT2%20HX%20KB5ME2%20BR&amp;utm_content=COM-FIO&amp;utm_campaign=TECLADO%20GAMER%20HYPERX%20ALLOY%20CORE%20RGB%20ABNT2%20HX%20KB5ME2%20BR" xr:uid="{67932983-1F1E-408F-AB82-D9DC76B1B39A}"/>
-    <hyperlink ref="I5" r:id="rId2" xr:uid="{3EC36221-8E7F-4216-804D-54B4FD1C8853}"/>
-    <hyperlink ref="I6" r:id="rId3" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=101512&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=TECLADO%20SEMI%20MECANICO%20GAMER%20GFALLEN%20ECO%20RGB%20US%20TE%20GA%20FN%20EC&amp;utm_content=COM-FIO&amp;utm_campaign=TECLADO%20SEMI%20MECANICO%20GAMER%20GFALLEN%20ECO%20RGB%20US%20TE%20GA%20FN%20EC" xr:uid="{B74C6055-CDAE-43A2-A617-7D8F9044EA6E}"/>
-    <hyperlink ref="I7" r:id="rId4" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=86100&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=TECLADO%20GAMER%20COOLER%20MASTER%20MASTERKEYS%20LITE%20L%20RGB%20ABNT2%20SGK%203040%20KKMF1%20BR&amp;utm_content=COM-FIO&amp;utm_campaign=TECLADO%20GAMER%20COOLER%20MASTER%20MASTERKEYS%20LITE%20L%20RGB%20ABNT2%20SGK%203040%20KKMF1%20BR" xr:uid="{D3CF029F-DF40-4BA9-AD71-B328DA0671D6}"/>
+    <hyperlink ref="I4" r:id="rId1" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=99696&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=TECLADO%20GAMER%20HYPERX%20ALLOY%20CORE%20RGB%20ABNT2%20HX%20KB5ME2%20BR&amp;utm_content=COM-FIO&amp;utm_campaign=TECLADO%20GAMER%20HYPERX%20ALLOY%20CORE%20RGB%20ABNT2%20HX%20KB5ME2%20BR"/>
+    <hyperlink ref="I5" r:id="rId2"/>
+    <hyperlink ref="I6" r:id="rId3" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=101512&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=TECLADO%20SEMI%20MECANICO%20GAMER%20GFALLEN%20ECO%20RGB%20US%20TE%20GA%20FN%20EC&amp;utm_content=COM-FIO&amp;utm_campaign=TECLADO%20SEMI%20MECANICO%20GAMER%20GFALLEN%20ECO%20RGB%20US%20TE%20GA%20FN%20EC"/>
+    <hyperlink ref="I7" r:id="rId4" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=86100&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=TECLADO%20GAMER%20COOLER%20MASTER%20MASTERKEYS%20LITE%20L%20RGB%20ABNT2%20SGK%203040%20KKMF1%20BR&amp;utm_content=COM-FIO&amp;utm_campaign=TECLADO%20GAMER%20COOLER%20MASTER%20MASTERKEYS%20LITE%20L%20RGB%20ABNT2%20SGK%203040%20KKMF1%20BR"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9A3180-66D9-4181-9EF9-9904F074EBD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1774,10 +1770,10 @@
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1794,7 +1790,7 @@
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1805,10 +1801,10 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
@@ -1816,13 +1812,13 @@
       <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I3" t="s">
@@ -1831,7 +1827,7 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1844,15 +1840,15 @@
         <f>INDEX('Placa de video'!$B$4:$J$50,MATCH(Resumo!$C$4,'Placa de video'!$B$4:$B$35,0),MATCH(E3,'Placa de video'!$B$3:$T$3,0))</f>
         <v>Amazon</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <f>INDEX('Placa de video'!$B$4:$J$50,MATCH(Resumo!$C$4,'Placa de video'!$B$4:$B$35,0),MATCH(F3,'Placa de video'!$B$3:$T$3,0))</f>
         <v>917</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f>INDEX('Placa de video'!$B$4:$J$50,MATCH(Resumo!$C$4,'Placa de video'!$B$4:$B$35,0),MATCH(G3,'Placa de video'!$B$3:$T$3,0))</f>
         <v>1070</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <f>INDEX('Placa de video'!$B$4:$J$50,MATCH(Resumo!$C$4,'Placa de video'!$B$4:$B$35,0),MATCH(H3,'Placa de video'!$B$3:$T$3,0))</f>
         <v>1005</v>
       </c>
@@ -1876,15 +1872,15 @@
         <f>INDEX(Processador!$B$5:$AC$28,MATCH(Resumo!$C$5,Processador!$B$5:$B$35,0),MATCH(Resumo!E3,Processador!$B$4:$AC$4,0))</f>
         <v>Kabum</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <f>INDEX(Processador!$B$5:$AC$28,MATCH(Resumo!$C$5,Processador!$B$5:$B$35,0),MATCH(Resumo!F3,Processador!$B$4:$AC$4,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
+        <v>979</v>
+      </c>
+      <c r="G5" s="3">
         <f>INDEX(Processador!$B$5:$AC$28,MATCH(Resumo!$C$5,Processador!$B$5:$B$35,0),MATCH(Resumo!G3,Processador!$B$4:$AC$4,0))</f>
         <v>979</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <f>INDEX(Processador!$B$5:$AC$28,MATCH(Resumo!$C$5,Processador!$B$5:$B$35,0),MATCH(Resumo!H3,Processador!$B$4:$AC$4,0))</f>
         <v>979</v>
       </c>
@@ -1895,7 +1891,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1908,15 +1904,15 @@
         <f>INDEX('Memória RAM'!$B$4:$S$45,MATCH(Resumo!$C$6,'Memória RAM'!$B$4:$B$50,0),MATCH(Resumo!E3,'Memória RAM'!$B$3:$X$3,0))</f>
         <v>Kabum</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <f>INDEX('Memória RAM'!$B$4:$S$45,MATCH(Resumo!$C$6,'Memória RAM'!$B$4:$B$50,0),MATCH(Resumo!F3,'Memória RAM'!$B$3:$X$3,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
+        <v>235</v>
+      </c>
+      <c r="G6" s="3">
         <f>INDEX('Memória RAM'!$B$4:$S$45,MATCH(Resumo!$C$6,'Memória RAM'!$B$4:$B$50,0),MATCH(Resumo!G3,'Memória RAM'!$B$3:$X$3,0))</f>
         <v>235</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <f>INDEX('Memória RAM'!$B$4:$S$45,MATCH(Resumo!$C$6,'Memória RAM'!$B$4:$B$50,0),MATCH(Resumo!H3,'Memória RAM'!$B$3:$X$3,0))</f>
         <v>235</v>
       </c>
@@ -1927,7 +1923,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1940,15 +1936,15 @@
         <f>INDEX('Memória RAM'!$B$4:$S$45,MATCH(Resumo!$C$7,'Memória RAM'!$B$4:$B$50,0),MATCH(Resumo!E3,'Memória RAM'!$B$3:$X$3,0))</f>
         <v>Kabum</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <f>INDEX('Memória RAM'!$B$4:$S$45,MATCH(Resumo!$C$7,'Memória RAM'!$B$4:$B$50,0),MATCH(Resumo!F3,'Memória RAM'!$B$3:$X$3,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
+        <v>235</v>
+      </c>
+      <c r="G7" s="3">
         <f>INDEX('Memória RAM'!$B$4:$S$45,MATCH(Resumo!$C$7,'Memória RAM'!$B$4:$B$50,0),MATCH(Resumo!G3,'Memória RAM'!$B$3:$X$3,0))</f>
         <v>235</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <f>INDEX('Memória RAM'!$B$4:$S$45,MATCH(Resumo!$C$7,'Memória RAM'!$B$4:$B$50,0),MATCH(Resumo!H3,'Memória RAM'!$B$3:$X$3,0))</f>
         <v>235</v>
       </c>
@@ -1959,7 +1955,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1972,15 +1968,15 @@
         <f>INDEX(SSD!$B$4:$S$74,MATCH(Resumo!$C$8,SSD!$B$4:$B$42,0),MATCH(Resumo!E3,SSD!$B$3:$S$3,0))</f>
         <v>Kabum</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <f>INDEX(SSD!$B$4:$S$74,MATCH(Resumo!$C$8,SSD!$B$4:$B$42,0),MATCH(Resumo!F3,SSD!$B$3:$S$3,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
+        <v>199</v>
+      </c>
+      <c r="G8" s="3">
         <f>INDEX(SSD!$B$4:$S$74,MATCH(Resumo!$C$8,SSD!$B$4:$B$42,0),MATCH(Resumo!G3,SSD!$B$3:$S$3,0))</f>
         <v>199</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <f>INDEX(SSD!$B$4:$S$74,MATCH(Resumo!$C$8,SSD!$B$4:$B$42,0),MATCH(Resumo!H3,SSD!$B$3:$S$3,0))</f>
         <v>199</v>
       </c>
@@ -1991,7 +1987,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2004,15 +2000,15 @@
         <f>INDEX(Fonte!$B$4:$W$33,MATCH(Resumo!$C$9,Fonte!$B$4:$B$82,0),MATCH(Resumo!E3,Fonte!$B$3:$S$3,0))</f>
         <v>Kabum</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <f>INDEX(Fonte!$B$4:$W$33,MATCH(Resumo!$C$9,Fonte!$B$4:$B$82,0),MATCH(Resumo!F3,Fonte!$B$3:$S$3,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
+        <v>270</v>
+      </c>
+      <c r="G9" s="3">
         <f>INDEX(Fonte!$B$4:$W$33,MATCH(Resumo!$C$9,Fonte!$B$4:$B$82,0),MATCH(Resumo!G3,Fonte!$B$3:$S$3,0))</f>
         <v>270</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <f>INDEX(Fonte!$B$4:$W$33,MATCH(Resumo!$C$9,Fonte!$B$4:$B$82,0),MATCH(Resumo!H3,Fonte!$B$3:$S$3,0))</f>
         <v>270</v>
       </c>
@@ -2023,7 +2019,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2036,15 +2032,15 @@
         <f>INDEX(Gabinete!$B$4:$U$45,MATCH(Resumo!$C$10,Gabinete!$B$4:$B$27,0),MATCH(Resumo!E3,Gabinete!$B$3:$U$3,0))</f>
         <v>Kabum</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <f>INDEX(Gabinete!$B$4:$U$45,MATCH(Resumo!$C$10,Gabinete!$B$4:$B$27,0),MATCH(Resumo!F3,Gabinete!$B$3:$U$3,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
+        <v>128</v>
+      </c>
+      <c r="G10" s="3">
         <f>INDEX(Gabinete!$B$4:$U$45,MATCH(Resumo!$C$10,Gabinete!$B$4:$B$27,0),MATCH(Resumo!G3,Gabinete!$B$3:$U$3,0))</f>
         <v>128</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <f>INDEX(Gabinete!$B$4:$U$45,MATCH(Resumo!$C$10,Gabinete!$B$4:$B$27,0),MATCH(Resumo!H3,Gabinete!$B$3:$U$3,0))</f>
         <v>128</v>
       </c>
@@ -2055,7 +2051,7 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2068,15 +2064,15 @@
         <f>INDEX(Monitor!$B$4:$S$41,MATCH(Resumo!$C$11,Monitor!$B$4:$B$75,0),MATCH(Resumo!E3,Monitor!$B$3:$S$3,0))</f>
         <v>Kabum/Carrefour</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <f>INDEX(Monitor!$B$4:$S$41,MATCH(Resumo!$C$11,Monitor!$B$4:$B$75,0),MATCH(Resumo!F3,Monitor!$B$3:$S$3,0))</f>
         <v>746</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <f>INDEX(Monitor!$B$4:$S$41,MATCH(Resumo!$C$11,Monitor!$B$4:$B$75,0),MATCH(Resumo!G3,Monitor!$B$3:$S$3,0))</f>
         <v>1000</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <f>INDEX(Monitor!$B$4:$S$41,MATCH(Resumo!$C$11,Monitor!$B$4:$B$75,0),MATCH(Resumo!H3,Monitor!$B$3:$S$3,0))</f>
         <v>1000</v>
       </c>
@@ -2087,7 +2083,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -2098,17 +2094,17 @@
       </c>
       <c r="E12" t="str">
         <f>INDEX(Teclado!$B$4:$U$36,MATCH(Resumo!$C$12,Teclado!$B$4:$B$131,0),MATCH(Resumo!E3,Teclado!$B$3:$U$3,0))</f>
-        <v>Fallen</v>
-      </c>
-      <c r="F12" s="4">
+        <v>Fallen Store/Kabum</v>
+      </c>
+      <c r="F12" s="3">
         <f>INDEX(Teclado!$B$4:$U$36,MATCH(Resumo!$C$12,Teclado!$B$4:$B$131,0),MATCH(Resumo!F3,Teclado!$B$3:$U$3,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
+        <v>199</v>
+      </c>
+      <c r="G12" s="3">
         <f>INDEX(Teclado!$B$4:$U$36,MATCH(Resumo!$C$12,Teclado!$B$4:$B$131,0),MATCH(Resumo!G3,Teclado!$B$3:$U$3,0))</f>
         <v>199</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <f>INDEX(Teclado!$B$4:$U$36,MATCH(Resumo!$C$12,Teclado!$B$4:$B$131,0),MATCH(Resumo!H3,Teclado!$B$3:$U$3,0))</f>
         <v>199</v>
       </c>
@@ -2119,20 +2115,20 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="6">
+      <c r="F13" s="4">
         <f t="shared" ref="F13:H13" si="0">SUM(F4:F12)</f>
-        <v>1663</v>
-      </c>
-      <c r="G13" s="6">
+        <v>3908</v>
+      </c>
+      <c r="G13" s="4">
         <f t="shared" si="0"/>
         <v>4315</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="4">
         <f t="shared" si="0"/>
         <v>4250</v>
       </c>
@@ -2144,6 +2140,18 @@
     <mergeCell ref="B2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H12">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2155,7 +2163,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H12">
+  <conditionalFormatting sqref="F4:F12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/PC.xlsx
+++ b/PC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7020" tabRatio="857" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7020" tabRatio="857" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Placa de video" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="88">
   <si>
     <t>Marca</t>
   </si>
@@ -296,6 +296,12 @@
   </si>
   <si>
     <t>Fallen Store/Kabum</t>
+  </si>
+  <si>
+    <t>https://www.buscape.com.br/placa-de-video/placa-de-video-nvidia-geforce-gtx-1660-6-gb-gddr5-192-bits-asus-ph-gtx1660-o6g?_lc=88&amp;q=gtx%201660</t>
+  </si>
+  <si>
+    <t>GTX 1660</t>
   </si>
 </sst>
 </file>
@@ -372,7 +378,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -381,7 +387,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -698,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J5"/>
+  <dimension ref="B2:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,8 +782,8 @@
       <c r="H4" s="1">
         <v>1550</v>
       </c>
-      <c r="I4" s="6">
-        <v>0</v>
+      <c r="I4" s="1">
+        <v>1550</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>15</v>
@@ -811,6 +816,35 @@
       </c>
       <c r="J5" s="2" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1">
+        <v>990</v>
+      </c>
+      <c r="H6" s="1">
+        <v>990</v>
+      </c>
+      <c r="I6" s="1">
+        <v>990</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -820,6 +854,7 @@
   <hyperlinks>
     <hyperlink ref="J4" r:id="rId1"/>
     <hyperlink ref="J5" r:id="rId2"/>
+    <hyperlink ref="J6" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -830,7 +865,7 @@
   <dimension ref="B3:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,7 +994,7 @@
   <dimension ref="B2:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,7 +1127,7 @@
         <v>630</v>
       </c>
       <c r="I6" s="3">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>36</v>
@@ -1117,13 +1152,13 @@
   <dimension ref="B2:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="6" max="6" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -1262,13 +1297,13 @@
   <dimension ref="B2:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="6" max="6" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="10.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1431,7 +1466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1761,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PC.xlsx
+++ b/PC.xlsx
@@ -5,22 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsousa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\081160020\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7020" tabRatio="857" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" tabRatio="857" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Placa de video" sheetId="1" r:id="rId1"/>
     <sheet name="Processador" sheetId="2" r:id="rId2"/>
     <sheet name="Memória RAM" sheetId="4" r:id="rId3"/>
     <sheet name="SSD" sheetId="5" r:id="rId4"/>
-    <sheet name="Fonte" sheetId="6" r:id="rId5"/>
-    <sheet name="Gabinete" sheetId="7" r:id="rId6"/>
-    <sheet name="Monitor" sheetId="8" r:id="rId7"/>
-    <sheet name="Teclado" sheetId="9" r:id="rId8"/>
-    <sheet name="Resumo" sheetId="10" r:id="rId9"/>
+    <sheet name="HD" sheetId="11" r:id="rId5"/>
+    <sheet name="Fonte" sheetId="6" r:id="rId6"/>
+    <sheet name="Gabinete" sheetId="7" r:id="rId7"/>
+    <sheet name="Monitor" sheetId="8" r:id="rId8"/>
+    <sheet name="Teclado" sheetId="9" r:id="rId9"/>
+    <sheet name="Resumo" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>Marca</t>
   </si>
@@ -302,6 +303,18 @@
   </si>
   <si>
     <t>GTX 1660</t>
+  </si>
+  <si>
+    <t>Seagate</t>
+  </si>
+  <si>
+    <t>7200 RPM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socket, Freq Memoria, </t>
+  </si>
+  <si>
+    <t>PRIME B450M-GAMING/BR</t>
   </si>
 </sst>
 </file>
@@ -706,7 +719,7 @@
   <dimension ref="B2:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,944 +873,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="255.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3">
-        <v>839</v>
-      </c>
-      <c r="H5" s="3">
-        <v>839</v>
-      </c>
-      <c r="I5" s="3">
-        <v>839</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="3">
-        <v>979</v>
-      </c>
-      <c r="H6" s="3">
-        <v>979</v>
-      </c>
-      <c r="I6" s="3">
-        <v>979</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:I3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="J5" r:id="rId1" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao.cgi?codigo=99683&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=PROCESSADOR%20INTEL%20CORE%20I5%209400F%20COFFEE%20LAKE%20CACHE%209MB%202%209GHZ%204%201GHZ%20MAX%20TURBO%20LGA%201151%20SEM%20VIDEO%20BX80684I59400F&amp;utm_content=INTEL&amp;utm_campaign=PROCESSADOR%20INTEL%20CORE%20I5%209400F%20COFFEE%20LAKE%20CACHE%209MB%202%209GHZ%204%201GHZ%20MAX%20TURBO%20LGA%201151%20SEM%20VIDEO%20BX80684I59400F"/>
-    <hyperlink ref="J6" r:id="rId2" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao.cgi?codigo=95563&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=PROCESSADOR%20AMD%20RYZEN%205%202600X%20COOLER%20WRAITH%20SPIRE%20CACHE%2019MB%203%206GHZ%204%2025GHZ%20MAX%20TURBO%20AM4%20SEM%20VIDEO%20YD260XBCAFBOX&amp;utm_content=AMD&amp;utm_campaign=PROCESSADOR%20AMD%20RYZEN%205%202600X%20COOLER%20WRAITH%20SPIRE%20CACHE%2019MB%203%206GHZ%204%2025GHZ%20MAX%20TURBO%20AM4%20SEM%20VIDEO%20YD260XBCAFBOX"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="3">
-        <v>235</v>
-      </c>
-      <c r="H4" s="3">
-        <v>235</v>
-      </c>
-      <c r="I4" s="3">
-        <v>235</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3">
-        <v>235</v>
-      </c>
-      <c r="H5" s="3">
-        <v>235</v>
-      </c>
-      <c r="I5" s="3">
-        <v>235</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="3">
-        <v>630</v>
-      </c>
-      <c r="H6" s="3">
-        <v>630</v>
-      </c>
-      <c r="I6" s="3">
-        <v>630</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="J4" r:id="rId1"/>
-    <hyperlink ref="J5" r:id="rId2" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=103547&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=MEMORIA%20HYPERX%20FURY%208GB%202666MHZ%20DDR4%20CL16%20PRETO%20HX426C16FB3%208&amp;utm_content=DDR-4&amp;utm_campaign=MEMORIA%20HYPERX%20FURY%208GB%202666MHZ%20DDR4%20CL16%20PRETO%20HX426C16FB3%208"/>
-    <hyperlink ref="J6" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="3">
-        <v>159</v>
-      </c>
-      <c r="G4" s="3">
-        <v>159</v>
-      </c>
-      <c r="H4" s="3">
-        <v>159</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="3">
-        <v>199</v>
-      </c>
-      <c r="G5" s="3">
-        <v>199</v>
-      </c>
-      <c r="H5" s="3">
-        <v>199</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="3">
-        <v>379</v>
-      </c>
-      <c r="G6" s="3">
-        <v>379</v>
-      </c>
-      <c r="H6" s="3">
-        <v>379</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:H2"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1"/>
-    <hyperlink ref="I5" r:id="rId2"/>
-    <hyperlink ref="I6" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="3">
-        <v>270</v>
-      </c>
-      <c r="G4" s="3">
-        <v>270</v>
-      </c>
-      <c r="H4" s="3">
-        <v>270</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:H2"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao.cgi?codigo=93995&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=FONTE%20COOLER%20MASTER%20ATX%20500W%2080%20PLUS%20WHITE%20MASTERWATT%20LITE%20MPX%205001%20ACAAW%20WO&amp;utm_content=LINHA-500-W&amp;utm_campaign=FONTE%20COOLER%20MASTER%20ATX%20500W%2080%20PLUS%20WHITE%20MASTERWATT%20LITE%20MPX%205001%20ACAAW%20WO"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="3">
-        <v>128</v>
-      </c>
-      <c r="F4" s="3">
-        <v>128</v>
-      </c>
-      <c r="G4" s="3">
-        <v>128</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4">
-        <v>23.6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="3">
-        <v>746</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5">
-        <v>23.6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="3">
-        <v>899</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1120</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="3">
-        <v>900</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="J4" r:id="rId1"/>
-    <hyperlink ref="J5" r:id="rId2"/>
-    <hyperlink ref="J6" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="3">
-        <v>280</v>
-      </c>
-      <c r="G4" s="3">
-        <v>280</v>
-      </c>
-      <c r="H4" s="3">
-        <v>280</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3">
-        <v>249</v>
-      </c>
-      <c r="G5" s="3">
-        <v>249</v>
-      </c>
-      <c r="H5" s="3">
-        <v>350</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="3">
-        <v>199</v>
-      </c>
-      <c r="G6" s="3">
-        <v>199</v>
-      </c>
-      <c r="H6" s="3">
-        <v>199</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="3">
-        <v>170</v>
-      </c>
-      <c r="G7" s="3">
-        <v>170</v>
-      </c>
-      <c r="H7" s="3">
-        <v>170</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:H2"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=99696&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=TECLADO%20GAMER%20HYPERX%20ALLOY%20CORE%20RGB%20ABNT2%20HX%20KB5ME2%20BR&amp;utm_content=COM-FIO&amp;utm_campaign=TECLADO%20GAMER%20HYPERX%20ALLOY%20CORE%20RGB%20ABNT2%20HX%20KB5ME2%20BR"/>
-    <hyperlink ref="I5" r:id="rId2"/>
-    <hyperlink ref="I6" r:id="rId3" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=101512&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=TECLADO%20SEMI%20MECANICO%20GAMER%20GFALLEN%20ECO%20RGB%20US%20TE%20GA%20FN%20EC&amp;utm_content=COM-FIO&amp;utm_campaign=TECLADO%20SEMI%20MECANICO%20GAMER%20GFALLEN%20ECO%20RGB%20US%20TE%20GA%20FN%20EC"/>
-    <hyperlink ref="I7" r:id="rId4" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=86100&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=TECLADO%20GAMER%20COOLER%20MASTER%20MASTERKEYS%20LITE%20L%20RGB%20ABNT2%20SGK%203040%20KKMF1%20BR&amp;utm_content=COM-FIO&amp;utm_campaign=TECLADO%20GAMER%20COOLER%20MASTER%20MASTERKEYS%20LITE%20L%20RGB%20ABNT2%20SGK%203040%20KKMF1%20BR"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2212,4 +1293,1027 @@
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3">
+        <v>839</v>
+      </c>
+      <c r="H5" s="3">
+        <v>839</v>
+      </c>
+      <c r="I5" s="3">
+        <v>839</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="3">
+        <v>979</v>
+      </c>
+      <c r="H6" s="3">
+        <v>979</v>
+      </c>
+      <c r="I6" s="3">
+        <v>979</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:I3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J5" r:id="rId1" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao.cgi?codigo=99683&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=PROCESSADOR%20INTEL%20CORE%20I5%209400F%20COFFEE%20LAKE%20CACHE%209MB%202%209GHZ%204%201GHZ%20MAX%20TURBO%20LGA%201151%20SEM%20VIDEO%20BX80684I59400F&amp;utm_content=INTEL&amp;utm_campaign=PROCESSADOR%20INTEL%20CORE%20I5%209400F%20COFFEE%20LAKE%20CACHE%209MB%202%209GHZ%204%201GHZ%20MAX%20TURBO%20LGA%201151%20SEM%20VIDEO%20BX80684I59400F"/>
+    <hyperlink ref="J6" r:id="rId2" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao.cgi?codigo=95563&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=PROCESSADOR%20AMD%20RYZEN%205%202600X%20COOLER%20WRAITH%20SPIRE%20CACHE%2019MB%203%206GHZ%204%2025GHZ%20MAX%20TURBO%20AM4%20SEM%20VIDEO%20YD260XBCAFBOX&amp;utm_content=AMD&amp;utm_campaign=PROCESSADOR%20AMD%20RYZEN%205%202600X%20COOLER%20WRAITH%20SPIRE%20CACHE%2019MB%203%206GHZ%204%2025GHZ%20MAX%20TURBO%20AM4%20SEM%20VIDEO%20YD260XBCAFBOX"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="3">
+        <v>235</v>
+      </c>
+      <c r="H4" s="3">
+        <v>235</v>
+      </c>
+      <c r="I4" s="3">
+        <v>235</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3">
+        <v>235</v>
+      </c>
+      <c r="H5" s="3">
+        <v>235</v>
+      </c>
+      <c r="I5" s="3">
+        <v>235</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3">
+        <v>630</v>
+      </c>
+      <c r="H6" s="3">
+        <v>630</v>
+      </c>
+      <c r="I6" s="3">
+        <v>630</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J4" r:id="rId1"/>
+    <hyperlink ref="J5" r:id="rId2" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=103547&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=MEMORIA%20HYPERX%20FURY%208GB%202666MHZ%20DDR4%20CL16%20PRETO%20HX426C16FB3%208&amp;utm_content=DDR-4&amp;utm_campaign=MEMORIA%20HYPERX%20FURY%208GB%202666MHZ%20DDR4%20CL16%20PRETO%20HX426C16FB3%208"/>
+    <hyperlink ref="J6" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="3">
+        <v>159</v>
+      </c>
+      <c r="G4" s="3">
+        <v>159</v>
+      </c>
+      <c r="H4" s="3">
+        <v>159</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3">
+        <v>199</v>
+      </c>
+      <c r="G5" s="3">
+        <v>199</v>
+      </c>
+      <c r="H5" s="3">
+        <v>199</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3">
+        <v>379</v>
+      </c>
+      <c r="G6" s="3">
+        <v>379</v>
+      </c>
+      <c r="H6" s="3">
+        <v>379</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I4" r:id="rId1"/>
+    <hyperlink ref="I5" r:id="rId2"/>
+    <hyperlink ref="I6" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>229</v>
+      </c>
+      <c r="H4">
+        <v>229</v>
+      </c>
+      <c r="I4">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3">
+        <v>270</v>
+      </c>
+      <c r="G4" s="3">
+        <v>270</v>
+      </c>
+      <c r="H4" s="3">
+        <v>270</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I4" r:id="rId1" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao.cgi?codigo=93995&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=FONTE%20COOLER%20MASTER%20ATX%20500W%2080%20PLUS%20WHITE%20MASTERWATT%20LITE%20MPX%205001%20ACAAW%20WO&amp;utm_content=LINHA-500-W&amp;utm_campaign=FONTE%20COOLER%20MASTER%20ATX%20500W%2080%20PLUS%20WHITE%20MASTERWATT%20LITE%20MPX%205001%20ACAAW%20WO"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3">
+        <v>128</v>
+      </c>
+      <c r="F4" s="3">
+        <v>128</v>
+      </c>
+      <c r="G4" s="3">
+        <v>128</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4">
+        <v>23.6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="3">
+        <v>746</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5">
+        <v>23.6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3">
+        <v>899</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1120</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="3">
+        <v>900</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J4" r:id="rId1"/>
+    <hyperlink ref="J5" r:id="rId2"/>
+    <hyperlink ref="J6" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3">
+        <v>280</v>
+      </c>
+      <c r="G4" s="3">
+        <v>280</v>
+      </c>
+      <c r="H4" s="3">
+        <v>280</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3">
+        <v>249</v>
+      </c>
+      <c r="G5" s="3">
+        <v>249</v>
+      </c>
+      <c r="H5" s="3">
+        <v>350</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="3">
+        <v>199</v>
+      </c>
+      <c r="G6" s="3">
+        <v>199</v>
+      </c>
+      <c r="H6" s="3">
+        <v>199</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3">
+        <v>170</v>
+      </c>
+      <c r="G7" s="3">
+        <v>170</v>
+      </c>
+      <c r="H7" s="3">
+        <v>170</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I4" r:id="rId1" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=99696&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=TECLADO%20GAMER%20HYPERX%20ALLOY%20CORE%20RGB%20ABNT2%20HX%20KB5ME2%20BR&amp;utm_content=COM-FIO&amp;utm_campaign=TECLADO%20GAMER%20HYPERX%20ALLOY%20CORE%20RGB%20ABNT2%20HX%20KB5ME2%20BR"/>
+    <hyperlink ref="I5" r:id="rId2"/>
+    <hyperlink ref="I6" r:id="rId3" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=101512&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=TECLADO%20SEMI%20MECANICO%20GAMER%20GFALLEN%20ECO%20RGB%20US%20TE%20GA%20FN%20EC&amp;utm_content=COM-FIO&amp;utm_campaign=TECLADO%20SEMI%20MECANICO%20GAMER%20GFALLEN%20ECO%20RGB%20US%20TE%20GA%20FN%20EC"/>
+    <hyperlink ref="I7" r:id="rId4" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=86100&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=TECLADO%20GAMER%20COOLER%20MASTER%20MASTERKEYS%20LITE%20L%20RGB%20ABNT2%20SGK%203040%20KKMF1%20BR&amp;utm_content=COM-FIO&amp;utm_campaign=TECLADO%20GAMER%20COOLER%20MASTER%20MASTERKEYS%20LITE%20L%20RGB%20ABNT2%20SGK%203040%20KKMF1%20BR"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/PC.xlsx
+++ b/PC.xlsx
@@ -1,45 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20358"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\081160020\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsousa\Downloads\PC-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7D27D4-7B1A-4FAE-A0AA-43693663BF7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" tabRatio="857" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" tabRatio="857" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Placa de video" sheetId="1" r:id="rId1"/>
     <sheet name="Processador" sheetId="2" r:id="rId2"/>
-    <sheet name="Memória RAM" sheetId="4" r:id="rId3"/>
-    <sheet name="SSD" sheetId="5" r:id="rId4"/>
-    <sheet name="HD" sheetId="11" r:id="rId5"/>
-    <sheet name="Fonte" sheetId="6" r:id="rId6"/>
-    <sheet name="Gabinete" sheetId="7" r:id="rId7"/>
-    <sheet name="Monitor" sheetId="8" r:id="rId8"/>
-    <sheet name="Teclado" sheetId="9" r:id="rId9"/>
-    <sheet name="Resumo" sheetId="10" r:id="rId10"/>
+    <sheet name="Placa Mãe" sheetId="12" r:id="rId3"/>
+    <sheet name="Memória RAM" sheetId="4" r:id="rId4"/>
+    <sheet name="SSD" sheetId="5" r:id="rId5"/>
+    <sheet name="HD" sheetId="11" r:id="rId6"/>
+    <sheet name="Fonte" sheetId="6" r:id="rId7"/>
+    <sheet name="Gabinete" sheetId="7" r:id="rId8"/>
+    <sheet name="Monitor" sheetId="8" r:id="rId9"/>
+    <sheet name="Teclado" sheetId="9" r:id="rId10"/>
+    <sheet name="Resumo" sheetId="10" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="107">
   <si>
     <t>Marca</t>
   </si>
@@ -315,12 +311,57 @@
   </si>
   <si>
     <t>PRIME B450M-GAMING/BR</t>
+  </si>
+  <si>
+    <t>75 Hz</t>
+  </si>
+  <si>
+    <t>https://www.buscape.com.br/monitor/monitor-led-24-aoc-g2460vq6?_lc=88&amp;q=g2460vq6</t>
+  </si>
+  <si>
+    <t>https://www.buscape.com.br/monitor/monitor-led-19-5-lg-20m37aa?_lc=88&amp;q=monitor%2060hz</t>
+  </si>
+  <si>
+    <t>60 Hz</t>
+  </si>
+  <si>
+    <t>Memoria</t>
+  </si>
+  <si>
+    <t>b2w</t>
+  </si>
+  <si>
+    <t>2 TB</t>
+  </si>
+  <si>
+    <t>https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=100916</t>
+  </si>
+  <si>
+    <t>https://www.americanas.com.br/produto/76738615/hd-seagate-constellation-2tb-sataii-3gbs-7200-rpm?pfm_carac=hd%202tb%20seagate%207200%20rpm&amp;pfm_page=search&amp;pfm_pos=grid&amp;pfm_type=search_page</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>Data atualizacao: 04/05/2020</t>
+  </si>
+  <si>
+    <t>https://www.kabum.com.br/produto/102521/placa-mae-gigabyte-h310m-s2p-2-0-intel-lga-1151-matx-ddr4?gclid=EAIaIQobChMI8cLasfia6QIVQ_zjBx31Jg4xEAQYASABEgKMbfD_BwE</t>
+  </si>
+  <si>
+    <t>Suporte</t>
+  </si>
+  <si>
+    <t>https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=99504&amp;gclid=EAIaIQobChMInafFvfma6QIVrgOzAB3A-gcJEAYYASABEgLRv_D_BwE</t>
+  </si>
+  <si>
+    <t>Placa Mãe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
@@ -715,11 +756,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,20 +906,192 @@
     <mergeCell ref="B2:I2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J4" r:id="rId1"/>
-    <hyperlink ref="J5" r:id="rId2"/>
-    <hyperlink ref="J6" r:id="rId3"/>
+    <hyperlink ref="J4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="B2:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3">
+        <v>280</v>
+      </c>
+      <c r="G4" s="3">
+        <v>280</v>
+      </c>
+      <c r="H4" s="3">
+        <v>280</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3">
+        <v>249</v>
+      </c>
+      <c r="G5" s="3">
+        <v>249</v>
+      </c>
+      <c r="H5" s="3">
+        <v>350</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="3">
+        <v>199</v>
+      </c>
+      <c r="G6" s="3">
+        <v>199</v>
+      </c>
+      <c r="H6" s="3">
+        <v>199</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3">
+        <v>170</v>
+      </c>
+      <c r="G7" s="3">
+        <v>170</v>
+      </c>
+      <c r="H7" s="3">
+        <v>170</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I4" r:id="rId1" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=99696&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=TECLADO%20GAMER%20HYPERX%20ALLOY%20CORE%20RGB%20ABNT2%20HX%20KB5ME2%20BR&amp;utm_content=COM-FIO&amp;utm_campaign=TECLADO%20GAMER%20HYPERX%20ALLOY%20CORE%20RGB%20ABNT2%20HX%20KB5ME2%20BR" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="I5" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="I6" r:id="rId3" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=101512&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=TECLADO%20SEMI%20MECANICO%20GAMER%20GFALLEN%20ECO%20RGB%20US%20TE%20GA%20FN%20EC&amp;utm_content=COM-FIO&amp;utm_campaign=TECLADO%20SEMI%20MECANICO%20GAMER%20GFALLEN%20ECO%20RGB%20US%20TE%20GA%20FN%20EC" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="I7" r:id="rId4" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=86100&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=TECLADO%20GAMER%20COOLER%20MASTER%20MASTERKEYS%20LITE%20L%20RGB%20ABNT2%20SGK%203040%20KKMF1%20BR&amp;utm_content=COM-FIO&amp;utm_campaign=TECLADO%20GAMER%20COOLER%20MASTER%20MASTERKEYS%20LITE%20L%20RGB%20ABNT2%20SGK%203040%20KKMF1%20BR" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="B1:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,11 +1191,11 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="str">
         <f>INDEX(Processador!$B$5:$AC$28,MATCH(Resumo!$C$5,Processador!$B$5:$B$35,0),MATCH(Resumo!D3,Processador!$B$4:$AC$4,0))</f>
-        <v>AMD</v>
+        <v>Intel</v>
       </c>
       <c r="E5" t="str">
         <f>INDEX(Processador!$B$5:$AC$28,MATCH(Resumo!$C$5,Processador!$B$5:$B$35,0),MATCH(Resumo!E3,Processador!$B$4:$AC$4,0))</f>
@@ -990,19 +1203,19 @@
       </c>
       <c r="F5" s="3">
         <f>INDEX(Processador!$B$5:$AC$28,MATCH(Resumo!$C$5,Processador!$B$5:$B$35,0),MATCH(Resumo!F3,Processador!$B$4:$AC$4,0))</f>
-        <v>979</v>
+        <v>839</v>
       </c>
       <c r="G5" s="3">
         <f>INDEX(Processador!$B$5:$AC$28,MATCH(Resumo!$C$5,Processador!$B$5:$B$35,0),MATCH(Resumo!G3,Processador!$B$4:$AC$4,0))</f>
-        <v>979</v>
+        <v>839</v>
       </c>
       <c r="H5" s="3">
         <f>INDEX(Processador!$B$5:$AC$28,MATCH(Resumo!$C$5,Processador!$B$5:$B$35,0),MATCH(Resumo!H3,Processador!$B$4:$AC$4,0))</f>
-        <v>979</v>
+        <v>839</v>
       </c>
       <c r="I5" t="str">
         <f>INDEX(Processador!$B$5:$AC$28,MATCH(Resumo!$C$5,Processador!$B$5:$B$35,0),MATCH(Resumo!I3,Processador!$B$4:$AC$4,0))</f>
-        <v>https://www.kabum.com.br/cgi-local/site/produtos/descricao.cgi?codigo=95563&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=PROCESSADOR%20AMD%20RYZEN%205%202600X%20COOLER%20WRAITH%20SPIRE%20CACHE%2019MB%203%206GHZ%204%2025GHZ%20MAX%20TURBO%20AM4%20SEM%20VIDEO%20YD260XBCAFBOX&amp;utm_content=AMD&amp;utm_campaign=PROCESSADOR%20AMD%20RYZEN%205%202600X%20COOLER%20WRAITH%20SPIRE%20CACHE%2019MB%203%206GHZ%204%2025GHZ%20MAX%20TURBO%20AM4%20SEM%20VIDEO%20YD260XBCAFBOX</v>
+        <v>https://www.kabum.com.br/cgi-local/site/produtos/descricao.cgi?codigo=99683&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=PROCESSADOR%20INTEL%20CORE%20I5%209400F%20COFFEE%20LAKE%20CACHE%209MB%202%209GHZ%204%201GHZ%20MAX%20TURBO%20LGA%201151%20SEM%20VIDEO%20BX80684I59400F&amp;utm_content=INTEL&amp;utm_campaign=PROCESSADOR%20INTEL%20CORE%20I5%209400F%20COFFEE%20LAKE%20CACHE%209MB%202%209GHZ%204%201GHZ%20MAX%20TURBO%20LGA%201151%20SEM%20VIDEO%20BX80684I59400F</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -1170,92 +1383,248 @@
         <v>82</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" t="str">
         <f>INDEX(Monitor!$B$4:$S$41,MATCH(Resumo!$C$11,Monitor!$B$4:$B$75,0),MATCH(Resumo!D3,Monitor!$B$3:$S$3,0))</f>
-        <v>Acer</v>
+        <v>LG</v>
       </c>
       <c r="E11" t="str">
         <f>INDEX(Monitor!$B$4:$S$41,MATCH(Resumo!$C$11,Monitor!$B$4:$B$75,0),MATCH(Resumo!E3,Monitor!$B$3:$S$3,0))</f>
-        <v>Kabum/Carrefour</v>
+        <v>Kabum</v>
       </c>
       <c r="F11" s="3">
         <f>INDEX(Monitor!$B$4:$S$41,MATCH(Resumo!$C$11,Monitor!$B$4:$B$75,0),MATCH(Resumo!F3,Monitor!$B$3:$S$3,0))</f>
-        <v>746</v>
+        <v>232</v>
       </c>
       <c r="G11" s="3">
         <f>INDEX(Monitor!$B$4:$S$41,MATCH(Resumo!$C$11,Monitor!$B$4:$B$75,0),MATCH(Resumo!G3,Monitor!$B$3:$S$3,0))</f>
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="H11" s="3">
         <f>INDEX(Monitor!$B$4:$S$41,MATCH(Resumo!$C$11,Monitor!$B$4:$B$75,0),MATCH(Resumo!H3,Monitor!$B$3:$S$3,0))</f>
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="I11" t="str">
         <f>INDEX(Monitor!$B$4:$S$41,MATCH(Resumo!$C$11,Monitor!$B$4:$B$75,0),MATCH(Resumo!I3,Monitor!$B$3:$S$3,0))</f>
-        <v>https://www.buscape.com.br/monitor/monitor-led-23-6-acer-full-hd-kg241q-pbiip?_lc=88&amp;q=monitor%20144%20hz%20acer</v>
+        <v>https://www.buscape.com.br/monitor/monitor-led-19-5-lg-20m37aa?_lc=88&amp;q=monitor%2060hz</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" t="str">
+        <f>INDEX(Monitor!$B$4:$S$41,MATCH(Resumo!$C$12,Monitor!$B$4:$B$75,0),MATCH(Resumo!D3,Monitor!$B$3:$S$3,0))</f>
+        <v>AOC</v>
+      </c>
+      <c r="E12" t="str">
+        <f>INDEX(Monitor!$B$4:$S$41,MATCH(Resumo!$C$12,Monitor!$B$4:$B$75,0),MATCH(Resumo!E3,Monitor!$B$3:$S$3,0))</f>
+        <v>B2W</v>
+      </c>
+      <c r="F12" s="3">
+        <f>INDEX(Monitor!$B$4:$S$41,MATCH(Resumo!$C$12,Monitor!$B$4:$B$75,0),MATCH(Resumo!F3,Monitor!$B$3:$S$3,0))</f>
+        <v>455</v>
+      </c>
+      <c r="G12" s="3">
+        <f>INDEX(Monitor!$B$4:$S$41,MATCH(Resumo!$C$12,Monitor!$B$4:$B$75,0),MATCH(Resumo!G3,Monitor!$B$3:$S$3,0))</f>
+        <v>700</v>
+      </c>
+      <c r="H12" s="3">
+        <f>INDEX(Monitor!$B$4:$S$41,MATCH(Resumo!$C$12,Monitor!$B$4:$B$75,0),MATCH(Resumo!H3,Monitor!$B$3:$S$3,0))</f>
+        <v>700</v>
+      </c>
+      <c r="I12" t="str">
+        <f>INDEX(Monitor!$B$4:$S$41,MATCH(Resumo!$C$12,Monitor!$B$4:$B$75,0),MATCH(Resumo!I3,Monitor!$B$3:$S$3,0))</f>
+        <v>https://www.buscape.com.br/monitor/monitor-led-24-aoc-g2460vq6?_lc=88&amp;q=g2460vq6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="str">
+        <f>INDEX('Placa Mãe'!$B$4:$R$41,MATCH(Resumo!$C$13,'Placa Mãe'!$B$4:$B$75,0),MATCH(Resumo!D3,'Placa Mãe'!$B$3:$R$3,0))</f>
+        <v>Asus</v>
+      </c>
+      <c r="E13" t="str">
+        <f>INDEX('Placa Mãe'!$B$4:$R$41,MATCH(Resumo!$C$13,'Placa Mãe'!$B$4:$B$75,0),MATCH(Resumo!E3,'Placa Mãe'!$B$3:$R$3,0))</f>
+        <v>Kabum</v>
+      </c>
+      <c r="F13" s="3">
+        <f>INDEX('Placa Mãe'!$B$4:$R$41,MATCH(Resumo!$C$13,'Placa Mãe'!$B$4:$B$75,0),MATCH(Resumo!F3,'Placa Mãe'!$B$3:$R$3,0))</f>
+        <v>560</v>
+      </c>
+      <c r="G13" s="3">
+        <f>INDEX('Placa Mãe'!$B$4:$R$41,MATCH(Resumo!$C$13,'Placa Mãe'!$B$4:$B$75,0),MATCH(Resumo!G3,'Placa Mãe'!$B$3:$R$3,0))</f>
+        <v>560</v>
+      </c>
+      <c r="H13" s="3">
+        <f>INDEX('Placa Mãe'!$B$4:$R$41,MATCH(Resumo!$C$13,'Placa Mãe'!$B$4:$B$75,0),MATCH(Resumo!H3,'Placa Mãe'!$B$3:$R$3,0))</f>
+        <v>560</v>
+      </c>
+      <c r="I13" t="str">
+        <f>INDEX('Placa Mãe'!$B$4:$R$41,MATCH(Resumo!$C$13,'Placa Mãe'!$B$4:$B$75,0),MATCH(Resumo!I3,'Placa Mãe'!$B$3:$R$3,0))</f>
+        <v>https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=99504&amp;gclid=EAIaIQobChMInafFvfma6QIVrgOzAB3A-gcJEAYYASABEgLRv_D_BwE</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="str">
+        <f>INDEX(HD!$B$4:$R$41,MATCH(Resumo!$C$14,HD!$B$4:$B$75,0),MATCH(Resumo!D3,HD!$B$3:$R$3,0))</f>
+        <v>Seagate</v>
+      </c>
+      <c r="E14" t="str">
+        <f>INDEX(HD!$B$4:$R$41,MATCH(Resumo!$C$14,HD!$B$4:$B$75,0),MATCH(Resumo!E3,HD!$B$3:$R$3,0))</f>
+        <v>Kabum</v>
+      </c>
+      <c r="F14" s="3">
+        <f>INDEX(HD!$B$4:$R$41,MATCH(Resumo!$C$14,HD!$B$4:$B$75,0),MATCH(Resumo!F3,HD!$B$3:$R$3,0))</f>
+        <v>390</v>
+      </c>
+      <c r="G14" s="3">
+        <f>INDEX(HD!$B$4:$R$41,MATCH(Resumo!$C$14,HD!$B$4:$B$75,0),MATCH(Resumo!G3,HD!$B$3:$R$3,0))</f>
+        <v>390</v>
+      </c>
+      <c r="H14" s="3">
+        <f>INDEX(HD!$B$4:$R$41,MATCH(Resumo!$C$14,HD!$B$4:$B$75,0),MATCH(Resumo!H3,HD!$B$3:$R$3,0))</f>
+        <v>390</v>
+      </c>
+      <c r="I14" t="str">
+        <f>INDEX(HD!$B$4:$R$41,MATCH(Resumo!$C$14,HD!$B$4:$B$75,0),MATCH(Resumo!I3,HD!$B$3:$R$3,0))</f>
+        <v>https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=100916</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>83</v>
       </c>
-      <c r="C12">
+      <c r="C15">
         <v>3</v>
       </c>
-      <c r="D12" t="str">
-        <f>INDEX(Teclado!$B$4:$U$36,MATCH(Resumo!$C$12,Teclado!$B$4:$B$131,0),MATCH(Resumo!D3,Teclado!$B$3:$U$3,0))</f>
+      <c r="D15" t="str">
+        <f>INDEX(Teclado!$B$4:$U$36,MATCH(Resumo!$C$15,Teclado!$B$4:$B$131,0),MATCH(Resumo!D3,Teclado!$B$3:$U$3,0))</f>
         <v>Gfallen</v>
       </c>
-      <c r="E12" t="str">
-        <f>INDEX(Teclado!$B$4:$U$36,MATCH(Resumo!$C$12,Teclado!$B$4:$B$131,0),MATCH(Resumo!E3,Teclado!$B$3:$U$3,0))</f>
+      <c r="E15" t="str">
+        <f>INDEX(Teclado!$B$4:$U$36,MATCH(Resumo!$C$15,Teclado!$B$4:$B$131,0),MATCH(Resumo!E3,Teclado!$B$3:$U$3,0))</f>
         <v>Fallen Store/Kabum</v>
       </c>
-      <c r="F12" s="3">
-        <f>INDEX(Teclado!$B$4:$U$36,MATCH(Resumo!$C$12,Teclado!$B$4:$B$131,0),MATCH(Resumo!F3,Teclado!$B$3:$U$3,0))</f>
+      <c r="F15" s="3">
+        <f>INDEX(Teclado!$B$4:$U$36,MATCH(Resumo!$C$15,Teclado!$B$4:$B$131,0),MATCH(Resumo!F3,Teclado!$B$3:$U$3,0))</f>
         <v>199</v>
       </c>
-      <c r="G12" s="3">
-        <f>INDEX(Teclado!$B$4:$U$36,MATCH(Resumo!$C$12,Teclado!$B$4:$B$131,0),MATCH(Resumo!G3,Teclado!$B$3:$U$3,0))</f>
+      <c r="G15" s="3">
+        <f>INDEX(Teclado!$B$4:$U$36,MATCH(Resumo!$C$15,Teclado!$B$4:$B$131,0),MATCH(Resumo!G3,Teclado!$B$3:$U$3,0))</f>
         <v>199</v>
       </c>
-      <c r="H12" s="3">
-        <f>INDEX(Teclado!$B$4:$U$36,MATCH(Resumo!$C$12,Teclado!$B$4:$B$131,0),MATCH(Resumo!H3,Teclado!$B$3:$U$3,0))</f>
+      <c r="H15" s="3">
+        <f>INDEX(Teclado!$B$4:$U$36,MATCH(Resumo!$C$15,Teclado!$B$4:$B$131,0),MATCH(Resumo!H3,Teclado!$B$3:$U$3,0))</f>
         <v>199</v>
       </c>
-      <c r="I12" t="str">
-        <f>INDEX(Teclado!$B$4:$U$36,MATCH(Resumo!$C$12,Teclado!$B$4:$B$131,0),MATCH(Resumo!I3,Teclado!$B$3:$U$3,0))</f>
+      <c r="I15" t="str">
+        <f>INDEX(Teclado!$B$4:$U$36,MATCH(Resumo!$C$15,Teclado!$B$4:$B$131,0),MATCH(Resumo!I3,Teclado!$B$3:$U$3,0))</f>
         <v>https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=101512&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=TECLADO%20SEMI%20MECANICO%20GAMER%20GFALLEN%20ECO%20RGB%20US%20TE%20GA%20FN%20EC&amp;utm_content=COM-FIO&amp;utm_campaign=TECLADO%20SEMI%20MECANICO%20GAMER%20GFALLEN%20ECO%20RGB%20US%20TE%20GA%20FN%20EC</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="4">
-        <f t="shared" ref="F13:H13" si="0">SUM(F4:F12)</f>
-        <v>3908</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4">
+        <f t="shared" ref="F16:H16" si="0">SUM(F4:F15)</f>
+        <v>4659</v>
+      </c>
+      <c r="G16" s="4">
         <f t="shared" si="0"/>
-        <v>4315</v>
-      </c>
-      <c r="H13" s="4">
+        <v>5175</v>
+      </c>
+      <c r="H16" s="4">
         <f t="shared" si="0"/>
-        <v>4250</v>
+        <v>5110</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B16:E16"/>
     <mergeCell ref="B2:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="G4:G12">
+  <conditionalFormatting sqref="G4:G10 G12 G15">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H10 H12 H15">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F10 F12 F15">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1267,7 +1636,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H12">
+  <conditionalFormatting sqref="F14:H14">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1279,7 +1648,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F12">
+  <conditionalFormatting sqref="F13:H13">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1296,11 +1665,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1426,8 +1795,8 @@
     <mergeCell ref="B3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J5" r:id="rId1" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao.cgi?codigo=99683&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=PROCESSADOR%20INTEL%20CORE%20I5%209400F%20COFFEE%20LAKE%20CACHE%209MB%202%209GHZ%204%201GHZ%20MAX%20TURBO%20LGA%201151%20SEM%20VIDEO%20BX80684I59400F&amp;utm_content=INTEL&amp;utm_campaign=PROCESSADOR%20INTEL%20CORE%20I5%209400F%20COFFEE%20LAKE%20CACHE%209MB%202%209GHZ%204%201GHZ%20MAX%20TURBO%20LGA%201151%20SEM%20VIDEO%20BX80684I59400F"/>
-    <hyperlink ref="J6" r:id="rId2" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao.cgi?codigo=95563&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=PROCESSADOR%20AMD%20RYZEN%205%202600X%20COOLER%20WRAITH%20SPIRE%20CACHE%2019MB%203%206GHZ%204%2025GHZ%20MAX%20TURBO%20AM4%20SEM%20VIDEO%20YD260XBCAFBOX&amp;utm_content=AMD&amp;utm_campaign=PROCESSADOR%20AMD%20RYZEN%205%202600X%20COOLER%20WRAITH%20SPIRE%20CACHE%2019MB%203%206GHZ%204%2025GHZ%20MAX%20TURBO%20AM4%20SEM%20VIDEO%20YD260XBCAFBOX"/>
+    <hyperlink ref="J5" r:id="rId1" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao.cgi?codigo=99683&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=PROCESSADOR%20INTEL%20CORE%20I5%209400F%20COFFEE%20LAKE%20CACHE%209MB%202%209GHZ%204%201GHZ%20MAX%20TURBO%20LGA%201151%20SEM%20VIDEO%20BX80684I59400F&amp;utm_content=INTEL&amp;utm_campaign=PROCESSADOR%20INTEL%20CORE%20I5%209400F%20COFFEE%20LAKE%20CACHE%209MB%202%209GHZ%204%201GHZ%20MAX%20TURBO%20LGA%201151%20SEM%20VIDEO%20BX80684I59400F" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="J6" r:id="rId2" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao.cgi?codigo=95563&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=PROCESSADOR%20AMD%20RYZEN%205%202600X%20COOLER%20WRAITH%20SPIRE%20CACHE%2019MB%203%206GHZ%204%2025GHZ%20MAX%20TURBO%20AM4%20SEM%20VIDEO%20YD260XBCAFBOX&amp;utm_content=AMD&amp;utm_campaign=PROCESSADOR%20AMD%20RYZEN%205%202600X%20COOLER%20WRAITH%20SPIRE%20CACHE%2019MB%203%206GHZ%204%2025GHZ%20MAX%20TURBO%20AM4%20SEM%20VIDEO%20YD260XBCAFBOX" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1435,11 +1804,125 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43BF996-7028-4BAC-8723-8C240D667685}">
+  <dimension ref="B2:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="8" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3">
+        <v>495</v>
+      </c>
+      <c r="G4" s="3">
+        <v>495</v>
+      </c>
+      <c r="H4" s="3">
+        <v>495</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3">
+        <v>560</v>
+      </c>
+      <c r="G5" s="3">
+        <v>560</v>
+      </c>
+      <c r="H5" s="3">
+        <v>560</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I4" r:id="rId1" xr:uid="{6C5E3A68-CE2F-461B-9D25-C50A2CACAFD7}"/>
+    <hyperlink ref="I5" r:id="rId2" xr:uid="{5EEC1B29-291C-4A0B-80A7-2BD25BA067AC}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B3" sqref="B3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1584,20 +2067,20 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J4" r:id="rId1"/>
-    <hyperlink ref="J5" r:id="rId2" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=103547&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=MEMORIA%20HYPERX%20FURY%208GB%202666MHZ%20DDR4%20CL16%20PRETO%20HX426C16FB3%208&amp;utm_content=DDR-4&amp;utm_campaign=MEMORIA%20HYPERX%20FURY%208GB%202666MHZ%20DDR4%20CL16%20PRETO%20HX426C16FB3%208"/>
-    <hyperlink ref="J6" r:id="rId3"/>
+    <hyperlink ref="J4" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="J5" r:id="rId2" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=103547&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=MEMORIA%20HYPERX%20FURY%208GB%202666MHZ%20DDR4%20CL16%20PRETO%20HX426C16FB3%208&amp;utm_content=DDR-4&amp;utm_campaign=MEMORIA%20HYPERX%20FURY%208GB%202666MHZ%20DDR4%20CL16%20PRETO%20HX426C16FB3%208" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="J6" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1729,31 +2212,34 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1"/>
-    <hyperlink ref="I5" r:id="rId2"/>
-    <hyperlink ref="I6" r:id="rId3"/>
+    <hyperlink ref="I4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="I5" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="I6" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:J4"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B2:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="7" max="9" width="10.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -1761,15 +2247,18 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -1787,43 +2276,83 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C4">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
       <c r="D4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="3">
+        <v>349</v>
+      </c>
+      <c r="H4" s="3">
+        <v>349</v>
+      </c>
+      <c r="I4" s="3">
+        <v>349</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
         <v>88</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D5" t="s">
         <v>89</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4">
-        <v>229</v>
-      </c>
-      <c r="H4">
-        <v>229</v>
-      </c>
-      <c r="I4">
-        <v>237</v>
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3">
+        <v>390</v>
+      </c>
+      <c r="H5" s="3">
+        <v>390</v>
+      </c>
+      <c r="I5" s="3">
+        <v>390</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="B2:I2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J5" r:id="rId1" xr:uid="{26AFACC2-77DB-47A6-B55B-64DD979FD6B9}"/>
+    <hyperlink ref="J4" r:id="rId2" xr:uid="{ABFCF115-0BBB-49E5-8498-0296A327FF40}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1901,18 +2430,18 @@
     <mergeCell ref="B2:H2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao.cgi?codigo=93995&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=FONTE%20COOLER%20MASTER%20ATX%20500W%2080%20PLUS%20WHITE%20MASTERWATT%20LITE%20MPX%205001%20ACAAW%20WO&amp;utm_content=LINHA-500-W&amp;utm_campaign=FONTE%20COOLER%20MASTER%20ATX%20500W%2080%20PLUS%20WHITE%20MASTERWATT%20LITE%20MPX%205001%20ACAAW%20WO"/>
+    <hyperlink ref="I4" r:id="rId1" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao.cgi?codigo=93995&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=FONTE%20COOLER%20MASTER%20ATX%20500W%2080%20PLUS%20WHITE%20MASTERWATT%20LITE%20MPX%205001%20ACAAW%20WO&amp;utm_content=LINHA-500-W&amp;utm_campaign=FONTE%20COOLER%20MASTER%20ATX%20500W%2080%20PLUS%20WHITE%20MASTERWATT%20LITE%20MPX%205001%20ACAAW%20WO" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1982,18 +2511,18 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1"/>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J6"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="B2:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2132,187 +2661,75 @@
         <v>61</v>
       </c>
     </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="3">
+        <v>455</v>
+      </c>
+      <c r="H7" s="3">
+        <v>700</v>
+      </c>
+      <c r="I7" s="3">
+        <v>700</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8">
+        <v>19.5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="3">
+        <v>232</v>
+      </c>
+      <c r="H8" s="3">
+        <v>350</v>
+      </c>
+      <c r="I8" s="3">
+        <v>350</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:I2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J4" r:id="rId1"/>
-    <hyperlink ref="J5" r:id="rId2"/>
-    <hyperlink ref="J6" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="3">
-        <v>280</v>
-      </c>
-      <c r="G4" s="3">
-        <v>280</v>
-      </c>
-      <c r="H4" s="3">
-        <v>280</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3">
-        <v>249</v>
-      </c>
-      <c r="G5" s="3">
-        <v>249</v>
-      </c>
-      <c r="H5" s="3">
-        <v>350</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="3">
-        <v>199</v>
-      </c>
-      <c r="G6" s="3">
-        <v>199</v>
-      </c>
-      <c r="H6" s="3">
-        <v>199</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="3">
-        <v>170</v>
-      </c>
-      <c r="G7" s="3">
-        <v>170</v>
-      </c>
-      <c r="H7" s="3">
-        <v>170</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:H2"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=99696&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=TECLADO%20GAMER%20HYPERX%20ALLOY%20CORE%20RGB%20ABNT2%20HX%20KB5ME2%20BR&amp;utm_content=COM-FIO&amp;utm_campaign=TECLADO%20GAMER%20HYPERX%20ALLOY%20CORE%20RGB%20ABNT2%20HX%20KB5ME2%20BR"/>
-    <hyperlink ref="I5" r:id="rId2"/>
-    <hyperlink ref="I6" r:id="rId3" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=101512&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=TECLADO%20SEMI%20MECANICO%20GAMER%20GFALLEN%20ECO%20RGB%20US%20TE%20GA%20FN%20EC&amp;utm_content=COM-FIO&amp;utm_campaign=TECLADO%20SEMI%20MECANICO%20GAMER%20GFALLEN%20ECO%20RGB%20US%20TE%20GA%20FN%20EC"/>
-    <hyperlink ref="I7" r:id="rId4" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=86100&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=TECLADO%20GAMER%20COOLER%20MASTER%20MASTERKEYS%20LITE%20L%20RGB%20ABNT2%20SGK%203040%20KKMF1%20BR&amp;utm_content=COM-FIO&amp;utm_campaign=TECLADO%20GAMER%20COOLER%20MASTER%20MASTERKEYS%20LITE%20L%20RGB%20ABNT2%20SGK%203040%20KKMF1%20BR"/>
+    <hyperlink ref="J4" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="J5" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="J6" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="J7" r:id="rId4" xr:uid="{FBD0A78F-156E-4BFE-AC67-6B4004E7A175}"/>
+    <hyperlink ref="J8" r:id="rId5" xr:uid="{E5F30B92-01F7-4105-B4EC-4DC9E92ACD78}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
